--- a/output/endemo2_industry_coefficients_total.xlsx
+++ b/output/endemo2_industry_coefficients_total.xlsx
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(2018.0, 1.15645874983918e-05)</t>
+          <t>(2018.0, 1.1565663088379015e-05)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(2018.0, 0.00045155301091263385)</t>
+          <t>(2018.0, 0.0004515950085971429)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(2018.0, 0.0001281741781071758)</t>
+          <t>(2018.0, 0.0001281860992295341)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
